--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vasp-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Vasp-Cxcr2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>72.07554666666667</v>
+        <v>39.06069033333333</v>
       </c>
       <c r="H2">
-        <v>216.22664</v>
+        <v>117.182071</v>
       </c>
       <c r="I2">
-        <v>0.5000941886059178</v>
+        <v>0.3672373747374215</v>
       </c>
       <c r="J2">
-        <v>0.5000941886059177</v>
+        <v>0.3672373747374215</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>141.0573636666666</v>
+        <v>0.03927866666666666</v>
       </c>
       <c r="N2">
-        <v>423.172091</v>
+        <v>0.117836</v>
       </c>
       <c r="O2">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448212</v>
       </c>
       <c r="P2">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448213</v>
       </c>
       <c r="Q2">
-        <v>10166.7865976338</v>
+        <v>1.534251835372889</v>
       </c>
       <c r="R2">
-        <v>91501.07937870423</v>
+        <v>13.808266518356</v>
       </c>
       <c r="S2">
-        <v>0.4934634426489643</v>
+        <v>0.2729501093695562</v>
       </c>
       <c r="T2">
-        <v>0.4934634426489642</v>
+        <v>0.2729501093695562</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,46 +599,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>72.07554666666667</v>
+        <v>39.06069033333333</v>
       </c>
       <c r="H3">
-        <v>216.22664</v>
+        <v>117.182071</v>
       </c>
       <c r="I3">
-        <v>0.5000941886059178</v>
+        <v>0.3672373747374215</v>
       </c>
       <c r="J3">
-        <v>0.5000941886059177</v>
+        <v>0.3672373747374215</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.89541</v>
+        <v>0.01356833333333333</v>
       </c>
       <c r="N3">
-        <v>5.686230000000001</v>
+        <v>0.040705</v>
       </c>
       <c r="O3">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="P3">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="Q3">
-        <v>136.6127119074667</v>
+        <v>0.5299884666727778</v>
       </c>
       <c r="R3">
-        <v>1229.5144071672</v>
+        <v>4.769896200055</v>
       </c>
       <c r="S3">
-        <v>0.006630745956953529</v>
+        <v>0.09428726536786536</v>
       </c>
       <c r="T3">
-        <v>0.006630745956953527</v>
+        <v>0.09428726536786536</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>43.644548</v>
       </c>
       <c r="I4">
-        <v>0.1009421633667897</v>
+        <v>0.1367778286588004</v>
       </c>
       <c r="J4">
-        <v>0.1009421633667897</v>
+        <v>0.1367778286588004</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>141.0573636666666</v>
+        <v>0.03927866666666666</v>
       </c>
       <c r="N4">
-        <v>423.172091</v>
+        <v>0.117836</v>
       </c>
       <c r="O4">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448212</v>
       </c>
       <c r="P4">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448213</v>
       </c>
       <c r="Q4">
-        <v>2052.128293101096</v>
+        <v>0.5714332175697777</v>
       </c>
       <c r="R4">
-        <v>18469.15463790987</v>
+        <v>5.142898958128</v>
       </c>
       <c r="S4">
-        <v>0.09960377180599933</v>
+        <v>0.1016604677518017</v>
       </c>
       <c r="T4">
-        <v>0.09960377180599932</v>
+        <v>0.1016604677518018</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>43.644548</v>
       </c>
       <c r="I5">
-        <v>0.1009421633667897</v>
+        <v>0.1367778286588004</v>
       </c>
       <c r="J5">
-        <v>0.1009421633667897</v>
+        <v>0.1367778286588004</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.89541</v>
+        <v>0.01356833333333333</v>
       </c>
       <c r="N5">
-        <v>5.686230000000001</v>
+        <v>0.040705</v>
       </c>
       <c r="O5">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="P5">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="Q5">
-        <v>27.57477090822667</v>
+        <v>0.1973945918155556</v>
       </c>
       <c r="R5">
-        <v>248.17293817404</v>
+        <v>1.77655132634</v>
       </c>
       <c r="S5">
-        <v>0.001338391560790401</v>
+        <v>0.03511736090699862</v>
       </c>
       <c r="T5">
-        <v>0.001338391560790401</v>
+        <v>0.03511736090699862</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.19468000000001</v>
+        <v>28.68702533333333</v>
       </c>
       <c r="H6">
-        <v>81.58404000000002</v>
+        <v>86.061076</v>
       </c>
       <c r="I6">
-        <v>0.18868953560483</v>
+        <v>0.2697071603839269</v>
       </c>
       <c r="J6">
-        <v>0.1886895356048299</v>
+        <v>0.2697071603839269</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>141.0573636666666</v>
+        <v>0.03927866666666666</v>
       </c>
       <c r="N6">
-        <v>423.172091</v>
+        <v>0.117836</v>
       </c>
       <c r="O6">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448212</v>
       </c>
       <c r="P6">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448213</v>
       </c>
       <c r="Q6">
-        <v>3836.009866558627</v>
+        <v>1.126788105726222</v>
       </c>
       <c r="R6">
-        <v>34524.08879902765</v>
+        <v>10.141092951536</v>
       </c>
       <c r="S6">
-        <v>0.1861877021425797</v>
+        <v>0.2004605304053867</v>
       </c>
       <c r="T6">
-        <v>0.1861877021425797</v>
+        <v>0.2004605304053867</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>27.19468000000001</v>
+        <v>28.68702533333333</v>
       </c>
       <c r="H7">
-        <v>81.58404000000002</v>
+        <v>86.061076</v>
       </c>
       <c r="I7">
-        <v>0.18868953560483</v>
+        <v>0.2697071603839269</v>
       </c>
       <c r="J7">
-        <v>0.1886895356048299</v>
+        <v>0.2697071603839269</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>1.89541</v>
+        <v>0.01356833333333333</v>
       </c>
       <c r="N7">
-        <v>5.686230000000001</v>
+        <v>0.040705</v>
       </c>
       <c r="O7">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="P7">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="Q7">
-        <v>51.54506841880001</v>
+        <v>0.3892351220644444</v>
       </c>
       <c r="R7">
-        <v>463.9056157692002</v>
+        <v>3.50311609858</v>
       </c>
       <c r="S7">
-        <v>0.002501833462250235</v>
+        <v>0.06924662997854023</v>
       </c>
       <c r="T7">
-        <v>0.002501833462250234</v>
+        <v>0.06924662997854021</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>30.30553433333334</v>
+        <v>24.06770466666667</v>
       </c>
       <c r="H8">
-        <v>90.91660300000001</v>
+        <v>72.203114</v>
       </c>
       <c r="I8">
-        <v>0.2102741124224626</v>
+        <v>0.2262776362198511</v>
       </c>
       <c r="J8">
-        <v>0.2102741124224626</v>
+        <v>0.2262776362198511</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,28 +927,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>141.0573636666666</v>
+        <v>0.03927866666666666</v>
       </c>
       <c r="N8">
-        <v>423.172091</v>
+        <v>0.117836</v>
       </c>
       <c r="O8">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448212</v>
       </c>
       <c r="P8">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448213</v>
       </c>
       <c r="Q8">
-        <v>4274.818777569652</v>
+        <v>0.9453473490337777</v>
       </c>
       <c r="R8">
-        <v>38473.36899812688</v>
+        <v>8.508126141304</v>
       </c>
       <c r="S8">
-        <v>0.2074860891809129</v>
+        <v>0.1681814265180765</v>
       </c>
       <c r="T8">
-        <v>0.2074860891809129</v>
+        <v>0.1681814265180766</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>30.30553433333334</v>
+        <v>24.06770466666667</v>
       </c>
       <c r="H9">
-        <v>90.91660300000001</v>
+        <v>72.203114</v>
       </c>
       <c r="I9">
-        <v>0.2102741124224626</v>
+        <v>0.2262776362198511</v>
       </c>
       <c r="J9">
-        <v>0.2102741124224626</v>
+        <v>0.2262776362198511</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.89541</v>
+        <v>0.01356833333333333</v>
       </c>
       <c r="N9">
-        <v>5.686230000000001</v>
+        <v>0.040705</v>
       </c>
       <c r="O9">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="P9">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="Q9">
-        <v>57.44141283074335</v>
+        <v>0.3265586394855556</v>
       </c>
       <c r="R9">
-        <v>516.9727154766902</v>
+        <v>2.93902775537</v>
       </c>
       <c r="S9">
-        <v>0.002788023241549696</v>
+        <v>0.05809620970177455</v>
       </c>
       <c r="T9">
-        <v>0.002788023241549695</v>
+        <v>0.05809620970177455</v>
       </c>
     </row>
   </sheetData>
